--- a/Code/Results/Cases/Case_8_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03824932257441</v>
+        <v>1.029869181857272</v>
       </c>
       <c r="D2">
-        <v>1.050254041395938</v>
+        <v>1.043089553516806</v>
       </c>
       <c r="E2">
-        <v>1.047645738114848</v>
+        <v>1.040755737192796</v>
       </c>
       <c r="F2">
-        <v>1.054611894782413</v>
+        <v>1.048435569105066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.059020412408215</v>
+        <v>1.055015955778201</v>
       </c>
       <c r="J2">
-        <v>1.059343233583044</v>
+        <v>1.051191791082542</v>
       </c>
       <c r="K2">
-        <v>1.061054990860813</v>
+        <v>1.053979529574495</v>
       </c>
       <c r="L2">
-        <v>1.058478923067302</v>
+        <v>1.051675043622381</v>
       </c>
       <c r="M2">
-        <v>1.065359428672338</v>
+        <v>1.059258971618935</v>
       </c>
       <c r="N2">
-        <v>1.0608476224831</v>
+        <v>1.038299215709892</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.060299729339314</v>
+        <v>1.055471739447613</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.054241220582371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049247044973225</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026073473667872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042550746448522</v>
+        <v>1.0336461440494</v>
       </c>
       <c r="D3">
-        <v>1.053208437923547</v>
+        <v>1.04557851851504</v>
       </c>
       <c r="E3">
-        <v>1.0510402403064</v>
+        <v>1.043697254389402</v>
       </c>
       <c r="F3">
-        <v>1.057761137476035</v>
+        <v>1.051186147135953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060231370216723</v>
+        <v>1.055946386767241</v>
       </c>
       <c r="J3">
-        <v>1.061945015976009</v>
+        <v>1.05325979053238</v>
       </c>
       <c r="K3">
-        <v>1.063202930896705</v>
+        <v>1.055659626618742</v>
       </c>
       <c r="L3">
-        <v>1.061059189100707</v>
+        <v>1.053799958955516</v>
       </c>
       <c r="M3">
-        <v>1.067704680514158</v>
+        <v>1.061203446296938</v>
       </c>
       <c r="N3">
-        <v>1.063453099705491</v>
+        <v>1.039458589424025</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.062155787504774</v>
+        <v>1.057010628115491</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.055757330968401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050432086234188</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026446216594751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045283332996563</v>
+        <v>1.036048866905924</v>
       </c>
       <c r="D4">
-        <v>1.055089241728781</v>
+        <v>1.047165803509412</v>
       </c>
       <c r="E4">
-        <v>1.053202144695057</v>
+        <v>1.04557405944245</v>
       </c>
       <c r="F4">
-        <v>1.059768431219321</v>
+        <v>1.052942416399596</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060992733573651</v>
+        <v>1.056530687937543</v>
       </c>
       <c r="J4">
-        <v>1.063595570189337</v>
+        <v>1.054573325057336</v>
       </c>
       <c r="K4">
-        <v>1.064565320916877</v>
+        <v>1.056726449347713</v>
       </c>
       <c r="L4">
-        <v>1.062698223536534</v>
+        <v>1.055151883478041</v>
       </c>
       <c r="M4">
-        <v>1.069195295333179</v>
+        <v>1.062441254737683</v>
       </c>
       <c r="N4">
-        <v>1.065105997895123</v>
+        <v>1.040194985494255</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.063335474207648</v>
+        <v>1.057990248095429</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.056721494164373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051187360313287</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026680478932518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046425681029197</v>
+        <v>1.037053663289616</v>
       </c>
       <c r="D5">
-        <v>1.055878583803095</v>
+        <v>1.047832700013593</v>
       </c>
       <c r="E5">
-        <v>1.054108007868655</v>
+        <v>1.046360981503351</v>
       </c>
       <c r="F5">
-        <v>1.0606098341326</v>
+        <v>1.053679118274389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.06131119885014</v>
+        <v>1.056775168546975</v>
       </c>
       <c r="J5">
-        <v>1.064286986819968</v>
+        <v>1.055123963048978</v>
       </c>
       <c r="K5">
-        <v>1.065137440945393</v>
+        <v>1.057175162435509</v>
       </c>
       <c r="L5">
-        <v>1.063385129524844</v>
+        <v>1.055718906679652</v>
       </c>
       <c r="M5">
-        <v>1.069820250215958</v>
+        <v>1.06296067544381</v>
       </c>
       <c r="N5">
-        <v>1.065798396416676</v>
+        <v>1.040503683953206</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.063830068898582</v>
+        <v>1.058401324982446</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.057133023182766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051512381668736</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026779184194102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046623288345111</v>
+        <v>1.037227028073014</v>
       </c>
       <c r="D6">
-        <v>1.056017811236444</v>
+        <v>1.047950486191958</v>
       </c>
       <c r="E6">
-        <v>1.054265765500367</v>
+        <v>1.046497748542277</v>
       </c>
       <c r="F6">
-        <v>1.060756320901838</v>
+        <v>1.053807189253508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061368752092589</v>
+        <v>1.056819657846852</v>
       </c>
       <c r="J6">
-        <v>1.064408973213898</v>
+        <v>1.055221176841439</v>
       </c>
       <c r="K6">
-        <v>1.065240167898102</v>
+        <v>1.057256289518856</v>
       </c>
       <c r="L6">
-        <v>1.063506112542491</v>
+        <v>1.055818745688471</v>
       </c>
       <c r="M6">
-        <v>1.06993038407439</v>
+        <v>1.063052257101875</v>
       </c>
       <c r="N6">
-        <v>1.065920556045277</v>
+        <v>1.040558183838945</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.06391722975283</v>
+        <v>1.058473803978023</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.057214203652282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051579200392898</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026797920645717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045316159047811</v>
+        <v>1.036105449824915</v>
       </c>
       <c r="D7">
-        <v>1.055118990793378</v>
+        <v>1.047213911246347</v>
       </c>
       <c r="E7">
-        <v>1.053230842005066</v>
+        <v>1.045624281856156</v>
       </c>
       <c r="F7">
-        <v>1.059794881959725</v>
+        <v>1.052986416419125</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061008860743968</v>
+        <v>1.056560208352467</v>
       </c>
       <c r="J7">
-        <v>1.063621957418184</v>
+        <v>1.054622822269727</v>
       </c>
       <c r="K7">
-        <v>1.064591961731779</v>
+        <v>1.056771217259786</v>
       </c>
       <c r="L7">
-        <v>1.062723815756478</v>
+        <v>1.055198735574054</v>
       </c>
       <c r="M7">
-        <v>1.069218691990779</v>
+        <v>1.062481986002742</v>
       </c>
       <c r="N7">
-        <v>1.065132422596862</v>
+        <v>1.040273821295723</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.063353990530141</v>
+        <v>1.05802248340214</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.056759993313991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051240768149281</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026696476671047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039736042098155</v>
+        <v>1.031263995671579</v>
       </c>
       <c r="D8">
-        <v>1.051283230205847</v>
+        <v>1.044028411038144</v>
       </c>
       <c r="E8">
-        <v>1.048821353279046</v>
+        <v>1.041855638990257</v>
       </c>
       <c r="F8">
-        <v>1.055701901843352</v>
+        <v>1.049454254291597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059449403340043</v>
+        <v>1.055398546098464</v>
       </c>
       <c r="J8">
-        <v>1.060251185624156</v>
+        <v>1.052002595102458</v>
       </c>
       <c r="K8">
-        <v>1.061810612956557</v>
+        <v>1.054643272888478</v>
       </c>
       <c r="L8">
-        <v>1.059378253154051</v>
+        <v>1.052496994987664</v>
       </c>
       <c r="M8">
-        <v>1.066176733895571</v>
+        <v>1.060003549475308</v>
       </c>
       <c r="N8">
-        <v>1.061756863920253</v>
+        <v>1.038908738695725</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.060946554207996</v>
+        <v>1.056061010756579</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.054797910633077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049741140265864</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026236087880119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029467337233653</v>
+        <v>1.022289353901836</v>
       </c>
       <c r="D9">
-        <v>1.044246410664204</v>
+        <v>1.038132807717695</v>
       </c>
       <c r="E9">
-        <v>1.040747536316912</v>
+        <v>1.034899142541872</v>
       </c>
       <c r="F9">
-        <v>1.04822094422263</v>
+        <v>1.042954812009546</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.056506833514101</v>
+        <v>1.053144961318671</v>
       </c>
       <c r="J9">
-        <v>1.054020782561957</v>
+        <v>1.047078846116417</v>
       </c>
       <c r="K9">
-        <v>1.056660210509878</v>
+        <v>1.050636084584238</v>
       </c>
       <c r="L9">
-        <v>1.05321238143719</v>
+        <v>1.047450289848346</v>
       </c>
       <c r="M9">
-        <v>1.060577283047753</v>
+        <v>1.055387404474815</v>
       </c>
       <c r="N9">
-        <v>1.055517612971068</v>
+        <v>1.036167265303862</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.056515072744843</v>
+        <v>1.05240770938999</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.051153256732096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046904473423295</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025333549280784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022422647842563</v>
+        <v>1.016286796640497</v>
       </c>
       <c r="D10">
-        <v>1.039469473501834</v>
+        <v>1.034257013361996</v>
       </c>
       <c r="E10">
-        <v>1.035271724095715</v>
+        <v>1.030326711270676</v>
       </c>
       <c r="F10">
-        <v>1.043185237759162</v>
+        <v>1.038705836697495</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.054481452935077</v>
+        <v>1.051674059563682</v>
       </c>
       <c r="J10">
-        <v>1.049774036460961</v>
+        <v>1.043868802976772</v>
       </c>
       <c r="K10">
-        <v>1.053160876646857</v>
+        <v>1.048034118963322</v>
       </c>
       <c r="L10">
-        <v>1.049032058935753</v>
+        <v>1.044169177168913</v>
       </c>
       <c r="M10">
-        <v>1.056816218224935</v>
+        <v>1.05240972630972</v>
       </c>
       <c r="N10">
-        <v>1.051264836003501</v>
+        <v>1.034596399971907</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.053589012777326</v>
+        <v>1.050101834164019</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.048695594123951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045083012018265</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024764407055526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020110146108264</v>
+        <v>1.01444987315151</v>
       </c>
       <c r="D11">
-        <v>1.038105314289596</v>
+        <v>1.033289605171076</v>
       </c>
       <c r="E11">
-        <v>1.033724255709177</v>
+        <v>1.029192057671793</v>
       </c>
       <c r="F11">
-        <v>1.041997017409614</v>
+        <v>1.037875203525624</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054063131539069</v>
+        <v>1.051505125694288</v>
       </c>
       <c r="J11">
-        <v>1.048669606611341</v>
+        <v>1.0432336353045</v>
       </c>
       <c r="K11">
-        <v>1.052342702927017</v>
+        <v>1.047609897502138</v>
       </c>
       <c r="L11">
-        <v>1.048037024390804</v>
+        <v>1.043583681725246</v>
       </c>
       <c r="M11">
-        <v>1.056168131956516</v>
+        <v>1.052116530963553</v>
       </c>
       <c r="N11">
-        <v>1.050158837736814</v>
+        <v>1.03467708670401</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.053504907504864</v>
+        <v>1.050300142887819</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.048149398433602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044818659639995</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024781902488079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019549071453739</v>
+        <v>1.013992724706963</v>
       </c>
       <c r="D12">
-        <v>1.037872879131156</v>
+        <v>1.033140500837099</v>
       </c>
       <c r="E12">
-        <v>1.033473276840315</v>
+        <v>1.029026600280511</v>
       </c>
       <c r="F12">
-        <v>1.041937336863861</v>
+        <v>1.037892280049956</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.054089661834244</v>
+        <v>1.051579306552589</v>
       </c>
       <c r="J12">
-        <v>1.04854851971502</v>
+        <v>1.043216470446082</v>
       </c>
       <c r="K12">
-        <v>1.052308767739717</v>
+        <v>1.047659179980863</v>
       </c>
       <c r="L12">
-        <v>1.047986102115294</v>
+        <v>1.043618052969498</v>
       </c>
       <c r="M12">
-        <v>1.056302896096644</v>
+        <v>1.052327831260911</v>
       </c>
       <c r="N12">
-        <v>1.050037578883212</v>
+        <v>1.034857292266036</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.053932842477528</v>
+        <v>1.050789651613792</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.048125405935042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044853502385575</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024865166931102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020323590359626</v>
+        <v>1.014556776836923</v>
       </c>
       <c r="D13">
-        <v>1.038521557306793</v>
+        <v>1.033608773301204</v>
       </c>
       <c r="E13">
-        <v>1.034226822659678</v>
+        <v>1.029588431240267</v>
       </c>
       <c r="F13">
-        <v>1.042770506098238</v>
+        <v>1.03856535396351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.054480037336799</v>
+        <v>1.051846037638377</v>
       </c>
       <c r="J13">
-        <v>1.04920247622263</v>
+        <v>1.043667176457959</v>
       </c>
       <c r="K13">
-        <v>1.052904488224896</v>
+        <v>1.0480772454996</v>
       </c>
       <c r="L13">
-        <v>1.048684475510255</v>
+        <v>1.044127693345205</v>
       </c>
       <c r="M13">
-        <v>1.057080294368917</v>
+        <v>1.052947527003811</v>
       </c>
       <c r="N13">
-        <v>1.050692464084072</v>
+        <v>1.035067877530802</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.054820364024811</v>
+        <v>1.051553274854995</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.048544137536992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045146376890105</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025005831924941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021471428935792</v>
+        <v>1.01542112006456</v>
       </c>
       <c r="D14">
-        <v>1.039376113549915</v>
+        <v>1.034223349088278</v>
       </c>
       <c r="E14">
-        <v>1.03520956052139</v>
+        <v>1.030318007930003</v>
       </c>
       <c r="F14">
-        <v>1.043758743086534</v>
+        <v>1.039339611936079</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.054918399861505</v>
+        <v>1.052124949146284</v>
       </c>
       <c r="J14">
-        <v>1.05001188841733</v>
+        <v>1.044200901195963</v>
       </c>
       <c r="K14">
-        <v>1.05360783749392</v>
+        <v>1.048543650591877</v>
       </c>
       <c r="L14">
-        <v>1.049512820505101</v>
+        <v>1.044706207836298</v>
       </c>
       <c r="M14">
-        <v>1.057916016346935</v>
+        <v>1.053571959363481</v>
       </c>
       <c r="N14">
-        <v>1.051503025736929</v>
+        <v>1.035233844755773</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.055652207266708</v>
+        <v>1.052218541204957</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.049042811169763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045477667624635</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025133595862048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022050057126989</v>
+        <v>1.015865497518667</v>
       </c>
       <c r="D15">
-        <v>1.039786096907056</v>
+        <v>1.034520476889082</v>
       </c>
       <c r="E15">
-        <v>1.035678185152022</v>
+        <v>1.030668156718018</v>
       </c>
       <c r="F15">
-        <v>1.044208380661132</v>
+        <v>1.039688459223221</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.055110666907224</v>
+        <v>1.052243626570641</v>
       </c>
       <c r="J15">
-        <v>1.050387730611559</v>
+        <v>1.044445639882316</v>
       </c>
       <c r="K15">
-        <v>1.05392680017104</v>
+        <v>1.04875100383361</v>
       </c>
       <c r="L15">
-        <v>1.04988886209061</v>
+        <v>1.044965150821853</v>
       </c>
       <c r="M15">
-        <v>1.058274548521102</v>
+        <v>1.053830817355552</v>
       </c>
       <c r="N15">
-        <v>1.051879401670185</v>
+        <v>1.035292249040167</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.055972712439903</v>
+        <v>1.052460351990579</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.049274084176281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045630619739972</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025182587002962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024888352527165</v>
+        <v>1.01811217313214</v>
       </c>
       <c r="D16">
-        <v>1.041689723392649</v>
+        <v>1.035928575810716</v>
       </c>
       <c r="E16">
-        <v>1.0378567208035</v>
+        <v>1.03233175015776</v>
       </c>
       <c r="F16">
-        <v>1.046204313271843</v>
+        <v>1.04124245894578</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.055908435700501</v>
+        <v>1.052726601349568</v>
       </c>
       <c r="J16">
-        <v>1.052074418600142</v>
+        <v>1.045550615489976</v>
       </c>
       <c r="K16">
-        <v>1.055310365371447</v>
+        <v>1.049643212176418</v>
       </c>
       <c r="L16">
-        <v>1.051539749725217</v>
+        <v>1.046105754340314</v>
       </c>
       <c r="M16">
-        <v>1.059752226486679</v>
+        <v>1.054870350319033</v>
       </c>
       <c r="N16">
-        <v>1.053568484949176</v>
+        <v>1.035514444464034</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.057102416122786</v>
+        <v>1.053243633362265</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.050255384743324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046264842481317</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025350283638186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026465446204407</v>
+        <v>1.019411784353841</v>
       </c>
       <c r="D17">
-        <v>1.042703553905019</v>
+        <v>1.036709094994851</v>
       </c>
       <c r="E17">
-        <v>1.039014219983252</v>
+        <v>1.033250724872686</v>
       </c>
       <c r="F17">
-        <v>1.047214885287139</v>
+        <v>1.042045953967445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.056288754337324</v>
+        <v>1.052963081372264</v>
       </c>
       <c r="J17">
-        <v>1.052943257809011</v>
+        <v>1.046143905518517</v>
       </c>
       <c r="K17">
-        <v>1.056002089650271</v>
+        <v>1.05010270368751</v>
       </c>
       <c r="L17">
-        <v>1.052371102767319</v>
+        <v>1.046699827681952</v>
       </c>
       <c r="M17">
-        <v>1.060442788217195</v>
+        <v>1.055354850964721</v>
       </c>
       <c r="N17">
-        <v>1.054438558009379</v>
+        <v>1.035662667226277</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.057520848341915</v>
+        <v>1.053498795262659</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050746979606797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046592507421805</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025417940220745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027083043179389</v>
+        <v>1.019960479528096</v>
       </c>
       <c r="D18">
-        <v>1.043017093785593</v>
+        <v>1.036964707777458</v>
       </c>
       <c r="E18">
-        <v>1.039368814057836</v>
+        <v>1.033549704500433</v>
       </c>
       <c r="F18">
-        <v>1.047426960076537</v>
+        <v>1.042206583705139</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.056327823012778</v>
+        <v>1.05297161016106</v>
       </c>
       <c r="J18">
-        <v>1.053160535688301</v>
+        <v>1.046290049036845</v>
       </c>
       <c r="K18">
-        <v>1.056132427794674</v>
+        <v>1.050174493432996</v>
       </c>
       <c r="L18">
-        <v>1.052540913588821</v>
+        <v>1.046813408853778</v>
       </c>
       <c r="M18">
-        <v>1.060474352150247</v>
+        <v>1.05533448499722</v>
       </c>
       <c r="N18">
-        <v>1.05465614444818</v>
+        <v>1.035663844228062</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.057311509527478</v>
+        <v>1.053247578777142</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050827715240955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046630673056044</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025383904911315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026869322090202</v>
+        <v>1.019834390121541</v>
       </c>
       <c r="D19">
-        <v>1.042735633230384</v>
+        <v>1.036758647041286</v>
       </c>
       <c r="E19">
-        <v>1.039030641852763</v>
+        <v>1.033292544152617</v>
       </c>
       <c r="F19">
-        <v>1.046945346071134</v>
+        <v>1.041790494426212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056086094847158</v>
+        <v>1.052783861432823</v>
       </c>
       <c r="J19">
-        <v>1.05282537864515</v>
+        <v>1.046038090595849</v>
       </c>
       <c r="K19">
-        <v>1.055794515721598</v>
+        <v>1.049910364999183</v>
       </c>
       <c r="L19">
-        <v>1.052146910018251</v>
+        <v>1.04649872793491</v>
       </c>
       <c r="M19">
-        <v>1.059939654004498</v>
+        <v>1.054863966407707</v>
       </c>
       <c r="N19">
-        <v>1.054320511443585</v>
+        <v>1.035499854606719</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.056568488224621</v>
+        <v>1.052554028072748</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050595083855546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046450855472783</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025265231282246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024300105052126</v>
+        <v>1.017792228345063</v>
       </c>
       <c r="D20">
-        <v>1.040760279112015</v>
+        <v>1.03523358534005</v>
       </c>
       <c r="E20">
-        <v>1.036738177530869</v>
+        <v>1.031466545860397</v>
       </c>
       <c r="F20">
-        <v>1.044533910524289</v>
+        <v>1.039774522955142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05504393626163</v>
+        <v>1.052034943711528</v>
       </c>
       <c r="J20">
-        <v>1.050925401035913</v>
+        <v>1.044654108708942</v>
       </c>
       <c r="K20">
-        <v>1.054122370941409</v>
+        <v>1.04868395058172</v>
       </c>
       <c r="L20">
-        <v>1.0501643915818</v>
+        <v>1.04497777518767</v>
       </c>
       <c r="M20">
-        <v>1.057836415901883</v>
+        <v>1.053152271369854</v>
       </c>
       <c r="N20">
-        <v>1.052417835648212</v>
+        <v>1.034844787712704</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.054386016902986</v>
+        <v>1.050679068871974</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.049416711692829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045588018398006</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024902850850029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018849521415561</v>
+        <v>1.01359995371881</v>
       </c>
       <c r="D21">
-        <v>1.037033945235254</v>
+        <v>1.032566283061463</v>
       </c>
       <c r="E21">
-        <v>1.032466925458216</v>
+        <v>1.028308160908582</v>
       </c>
       <c r="F21">
-        <v>1.040563283297908</v>
+        <v>1.036752643910527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.053413915478532</v>
+        <v>1.051095329024009</v>
       </c>
       <c r="J21">
-        <v>1.047579757990881</v>
+        <v>1.042539869298762</v>
       </c>
       <c r="K21">
-        <v>1.051346099052864</v>
+        <v>1.046955872442741</v>
       </c>
       <c r="L21">
-        <v>1.046858246814592</v>
+        <v>1.042772365906085</v>
       </c>
       <c r="M21">
-        <v>1.054814872357628</v>
+        <v>1.051069647909834</v>
       </c>
       <c r="N21">
-        <v>1.049067441406306</v>
+        <v>1.034456471579045</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.051954595796095</v>
+        <v>1.048990542026167</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.047457031132339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044369746228486</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024565541863663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015378202965874</v>
+        <v>1.010919777111296</v>
       </c>
       <c r="D22">
-        <v>1.034671198035599</v>
+        <v>1.030873674571197</v>
       </c>
       <c r="E22">
-        <v>1.02976581665876</v>
+        <v>1.026309529136783</v>
       </c>
       <c r="F22">
-        <v>1.038069600092692</v>
+        <v>1.034858620104059</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052375468688487</v>
+        <v>1.0504946381208</v>
       </c>
       <c r="J22">
-        <v>1.045457962653915</v>
+        <v>1.041188061411168</v>
       </c>
       <c r="K22">
-        <v>1.049585741850199</v>
+        <v>1.045857364239013</v>
       </c>
       <c r="L22">
-        <v>1.044769803519068</v>
+        <v>1.04137720619448</v>
       </c>
       <c r="M22">
-        <v>1.052922822657787</v>
+        <v>1.049769768401112</v>
       </c>
       <c r="N22">
-        <v>1.046942632876587</v>
+        <v>1.034164453938637</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.05045718713056</v>
+        <v>1.047961785769794</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046199144040517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043578457082659</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024353452493879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017207603645403</v>
+        <v>1.012284849564289</v>
       </c>
       <c r="D23">
-        <v>1.035909049880731</v>
+        <v>1.031719059864366</v>
       </c>
       <c r="E23">
-        <v>1.03118545535682</v>
+        <v>1.027314761935671</v>
       </c>
       <c r="F23">
-        <v>1.039380454700679</v>
+        <v>1.03581688974629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052916744709964</v>
+        <v>1.050776713238422</v>
       </c>
       <c r="J23">
-        <v>1.046570021582035</v>
+        <v>1.041849291863007</v>
       </c>
       <c r="K23">
-        <v>1.050504055212166</v>
+        <v>1.046388410313959</v>
       </c>
       <c r="L23">
-        <v>1.045864330136909</v>
+        <v>1.04206310992432</v>
       </c>
       <c r="M23">
-        <v>1.053914453283248</v>
+        <v>1.050413521932859</v>
       </c>
       <c r="N23">
-        <v>1.048056271055941</v>
+        <v>1.034219389175198</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.051241985224267</v>
+        <v>1.048471268149241</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.046838931115099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043943475520144</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02444457008891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024285886888044</v>
+        <v>1.01778679463036</v>
       </c>
       <c r="D24">
-        <v>1.040722044855617</v>
+        <v>1.035202574180645</v>
       </c>
       <c r="E24">
-        <v>1.036699551223233</v>
+        <v>1.031436235478417</v>
       </c>
       <c r="F24">
-        <v>1.04447553645141</v>
+        <v>1.039722605934983</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055006241210767</v>
+        <v>1.052002941050575</v>
       </c>
       <c r="J24">
-        <v>1.050880090451771</v>
+        <v>1.044616939684695</v>
       </c>
       <c r="K24">
-        <v>1.054069881395642</v>
+        <v>1.048638463860834</v>
       </c>
       <c r="L24">
-        <v>1.050111440541721</v>
+        <v>1.044932904841383</v>
       </c>
       <c r="M24">
-        <v>1.057764173020599</v>
+        <v>1.053086297910079</v>
       </c>
       <c r="N24">
-        <v>1.052372460717844</v>
+        <v>1.034816151295261</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.054288729577313</v>
+        <v>1.050586565065523</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.049352684241408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045526177684234</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024880917895966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032202293873028</v>
+        <v>1.024635822163932</v>
       </c>
       <c r="D25">
-        <v>1.046127743670393</v>
+        <v>1.039676570482161</v>
       </c>
       <c r="E25">
-        <v>1.042897095998782</v>
+        <v>1.036711739530142</v>
       </c>
       <c r="F25">
-        <v>1.05021055016921</v>
+        <v>1.044650762475836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057308843152053</v>
+        <v>1.053739343474542</v>
       </c>
       <c r="J25">
-        <v>1.055692483256311</v>
+        <v>1.048361615188069</v>
       </c>
       <c r="K25">
-        <v>1.058049830042451</v>
+        <v>1.051688669990769</v>
       </c>
       <c r="L25">
-        <v>1.054864083861297</v>
+        <v>1.048765682289234</v>
       </c>
       <c r="M25">
-        <v>1.062076389041277</v>
+        <v>1.05659333334963</v>
       </c>
       <c r="N25">
-        <v>1.057191687672155</v>
+        <v>1.036821620278028</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.057701488095606</v>
+        <v>1.053362105203522</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.052163799764144</v>
+        <v>1.0476796376131</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025572125168726</v>
       </c>
     </row>
   </sheetData>
